--- a/Cotacao.xlsx
+++ b/Cotacao.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kiyo_\Desktop\projects\options\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D1A5403-FAE8-468F-9F05-1E08FCACFE2D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C3E3D8E-C765-45DE-82B8-0825EDA46F50}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9948" yWindow="3624" windowWidth="12720" windowHeight="8820" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9948" yWindow="3540" windowWidth="12720" windowHeight="8820" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -166,126 +166,126 @@
       <ddeItem name="ABEV3" advise="1">
         <values>
           <value>
-            <val>14.71</val>
+            <val>14.82</val>
           </value>
         </values>
       </ddeItem>
       <ddeItem name="B3SA3" advise="1">
         <values>
           <value>
-            <val>59.04</val>
+            <val>59.14</val>
           </value>
         </values>
       </ddeItem>
       <ddeItem name="BBAS3" advise="1">
         <values>
           <value>
-            <val>34</val>
+            <val>33.89</val>
           </value>
         </values>
       </ddeItem>
       <ddeItem name="BBDC4" advise="1">
         <values>
           <value>
-            <val>22</val>
+            <val>21.93</val>
           </value>
         </values>
       </ddeItem>
       <ddeItem name="BOVA11" advise="1">
         <values>
           <value>
-            <val>95.52</val>
+            <val>95.89</val>
           </value>
         </values>
       </ddeItem>
       <ddeItem name="BRML3" advise="1">
         <values>
           <value>
-            <val>11.04</val>
+            <val>11.23</val>
           </value>
         </values>
       </ddeItem>
       <ddeItem name="CIEL3" advise="1">
         <values>
           <value>
-            <val>4.9000000000000004</val>
+            <val>4.83</val>
           </value>
         </values>
       </ddeItem>
       <ddeItem name="CMIG4" advise="1">
         <values>
           <value>
-            <val>11.55</val>
+            <val>11.52</val>
           </value>
         </values>
       </ddeItem>
       <ddeItem name="COGN3" advise="1">
         <values>
           <value>
-            <val>7.76</val>
+            <val>8.35</val>
           </value>
         </values>
       </ddeItem>
       <ddeItem name="CSNA3" advise="1">
         <values>
           <value>
-            <val>11.07</val>
+            <val>11.18</val>
           </value>
         </values>
       </ddeItem>
       <ddeItem name="CYRE3" advise="1">
         <values>
           <value>
-            <val>26.78</val>
+            <val>27.44</val>
           </value>
         </values>
       </ddeItem>
       <ddeItem name="GGBR4" advise="1">
         <values>
           <value>
-            <val>15.97</val>
+            <val>16.11</val>
           </value>
         </values>
       </ddeItem>
       <ddeItem name="IRBR3" advise="1">
         <values>
           <value>
-            <val>9.26</val>
+            <val>9.1999999999999993</val>
           </value>
         </values>
       </ddeItem>
       <ddeItem name="ITSA4" advise="1">
         <values>
           <value>
-            <val>10.199999999999999</val>
+            <val>10.17</val>
           </value>
         </values>
       </ddeItem>
       <ddeItem name="ITUB4" advise="1">
         <values>
           <value>
-            <val>26.97</val>
+            <val>27.01</val>
           </value>
         </values>
       </ddeItem>
       <ddeItem name="JBSS3" advise="1">
         <values>
           <value>
-            <val>22.21</val>
+            <val>22.97</val>
           </value>
         </values>
       </ddeItem>
       <ddeItem name="MRFG3" advise="1">
         <values>
           <value>
-            <val>13.05</val>
+            <val>13.47</val>
           </value>
         </values>
       </ddeItem>
       <ddeItem name="PETR4" advise="1">
         <values>
           <value>
-            <val>22.14</val>
+            <val>22.43</val>
           </value>
         </values>
       </ddeItem>
@@ -293,28 +293,28 @@
       <ddeItem name="SUZB3" advise="1">
         <values>
           <value>
-            <val>36.549999999999997</val>
+            <val>36.65</val>
           </value>
         </values>
       </ddeItem>
       <ddeItem name="USIM5" advise="1">
         <values>
           <value>
-            <val>7.5</val>
+            <val>7.41</val>
           </value>
         </values>
       </ddeItem>
       <ddeItem name="VALE3" advise="1">
         <values>
           <value>
-            <val>56.41</val>
+            <val>57.18</val>
           </value>
         </values>
       </ddeItem>
       <ddeItem name="VVAR3" advise="1">
         <values>
           <value>
-            <val>17.59</val>
+            <val>17.600000000000001</val>
           </value>
         </values>
       </ddeItem>
@@ -588,7 +588,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
       <selection activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
@@ -608,7 +608,7 @@
       </c>
       <c r="B2">
         <f>[1]!PETR4</f>
-        <v>22.14</v>
+        <v>22.43</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
@@ -617,7 +617,7 @@
       </c>
       <c r="B3">
         <f>[1]!VALE3</f>
-        <v>56.41</v>
+        <v>57.18</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
@@ -626,7 +626,7 @@
       </c>
       <c r="B4">
         <f>[1]!BOVA11</f>
-        <v>95.52</v>
+        <v>95.89</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
@@ -635,7 +635,7 @@
       </c>
       <c r="B5">
         <f>[1]!COGN3</f>
-        <v>7.76</v>
+        <v>8.35</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
@@ -644,7 +644,7 @@
       </c>
       <c r="B6">
         <f>[1]!BBDC4</f>
-        <v>22</v>
+        <v>21.93</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
@@ -653,7 +653,7 @@
       </c>
       <c r="B7">
         <f>[1]!VVAR3</f>
-        <v>17.59</v>
+        <v>17.600000000000001</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
@@ -662,7 +662,7 @@
       </c>
       <c r="B8">
         <f>[1]!ITUB4</f>
-        <v>26.97</v>
+        <v>27.01</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
@@ -671,7 +671,7 @@
       </c>
       <c r="B9">
         <f>[1]!CIEL3</f>
-        <v>4.9000000000000004</v>
+        <v>4.83</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
@@ -680,7 +680,7 @@
       </c>
       <c r="B10">
         <f>[1]!IRBR3</f>
-        <v>9.26</v>
+        <v>9.1999999999999993</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
@@ -689,7 +689,7 @@
       </c>
       <c r="B11">
         <f>[1]!BBAS3</f>
-        <v>34</v>
+        <v>33.89</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
@@ -698,7 +698,7 @@
       </c>
       <c r="B12">
         <f>[1]!ITSA4</f>
-        <v>10.199999999999999</v>
+        <v>10.17</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
@@ -707,7 +707,7 @@
       </c>
       <c r="B13">
         <f>[1]!ABEV3</f>
-        <v>14.71</v>
+        <v>14.82</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
@@ -716,7 +716,7 @@
       </c>
       <c r="B14">
         <f>[1]!USIM5</f>
-        <v>7.5</v>
+        <v>7.41</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
@@ -725,7 +725,7 @@
       </c>
       <c r="B15">
         <f>[1]!GGBR4</f>
-        <v>15.97</v>
+        <v>16.11</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
@@ -734,7 +734,7 @@
       </c>
       <c r="B16">
         <f>[1]!CSNA3</f>
-        <v>11.07</v>
+        <v>11.18</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
@@ -743,7 +743,7 @@
       </c>
       <c r="B17">
         <f>[1]!B3SA3</f>
-        <v>59.04</v>
+        <v>59.14</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
@@ -752,7 +752,7 @@
       </c>
       <c r="B18">
         <f>[1]!JBSS3</f>
-        <v>22.21</v>
+        <v>22.97</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
@@ -761,7 +761,7 @@
       </c>
       <c r="B19">
         <f>[1]!CMIG4</f>
-        <v>11.55</v>
+        <v>11.52</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
@@ -770,7 +770,7 @@
       </c>
       <c r="B20">
         <f>[1]!SUZB3</f>
-        <v>36.549999999999997</v>
+        <v>36.65</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
@@ -779,7 +779,7 @@
       </c>
       <c r="B21">
         <f>[1]!MRFG3</f>
-        <v>13.05</v>
+        <v>13.47</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
@@ -788,7 +788,7 @@
       </c>
       <c r="B22">
         <f>[1]!BRML3</f>
-        <v>11.04</v>
+        <v>11.23</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
@@ -797,7 +797,7 @@
       </c>
       <c r="B23">
         <f>[1]!CYRE3</f>
-        <v>26.78</v>
+        <v>27.44</v>
       </c>
     </row>
   </sheetData>

--- a/Cotacao.xlsx
+++ b/Cotacao.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kiyo_\Desktop\projects\options\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C3E3D8E-C765-45DE-82B8-0825EDA46F50}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A08C8689-2185-4665-9EC0-6C68C02AF723}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9948" yWindow="3540" windowWidth="12720" windowHeight="8820" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5376" yWindow="3108" windowWidth="12720" windowHeight="8820" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -166,126 +166,126 @@
       <ddeItem name="ABEV3" advise="1">
         <values>
           <value>
-            <val>14.82</val>
+            <val>14.64</val>
           </value>
         </values>
       </ddeItem>
       <ddeItem name="B3SA3" advise="1">
         <values>
           <value>
-            <val>59.14</val>
+            <val>66.13</val>
           </value>
         </values>
       </ddeItem>
       <ddeItem name="BBAS3" advise="1">
         <values>
           <value>
-            <val>33.89</val>
+            <val>35.76</val>
           </value>
         </values>
       </ddeItem>
       <ddeItem name="BBDC4" advise="1">
         <values>
           <value>
-            <val>21.93</val>
+            <val>23.21</val>
           </value>
         </values>
       </ddeItem>
       <ddeItem name="BOVA11" advise="1">
         <values>
           <value>
-            <val>95.89</val>
+            <val>100.49</val>
           </value>
         </values>
       </ddeItem>
       <ddeItem name="BRML3" advise="1">
         <values>
           <value>
-            <val>11.23</val>
+            <val>11.6</val>
           </value>
         </values>
       </ddeItem>
       <ddeItem name="CIEL3" advise="1">
         <values>
           <value>
-            <val>4.83</val>
+            <val>5.34</val>
           </value>
         </values>
       </ddeItem>
       <ddeItem name="CMIG4" advise="1">
         <values>
           <value>
-            <val>11.52</val>
+            <val>11.53</val>
           </value>
         </values>
       </ddeItem>
       <ddeItem name="COGN3" advise="1">
         <values>
           <value>
-            <val>8.35</val>
+            <val>9.41</val>
           </value>
         </values>
       </ddeItem>
       <ddeItem name="CSNA3" advise="1">
         <values>
           <value>
-            <val>11.18</val>
+            <val>11.61</val>
           </value>
         </values>
       </ddeItem>
       <ddeItem name="CYRE3" advise="1">
         <values>
           <value>
-            <val>27.44</val>
+            <val>27.35</val>
           </value>
         </values>
       </ddeItem>
       <ddeItem name="GGBR4" advise="1">
         <values>
           <value>
-            <val>16.11</val>
+            <val>16.079999999999998</val>
           </value>
         </values>
       </ddeItem>
       <ddeItem name="IRBR3" advise="1">
         <values>
           <value>
-            <val>9.1999999999999993</val>
+            <val>8.5299999999999994</val>
           </value>
         </values>
       </ddeItem>
       <ddeItem name="ITSA4" advise="1">
         <values>
           <value>
-            <val>10.17</val>
+            <val>10.53</val>
           </value>
         </values>
       </ddeItem>
       <ddeItem name="ITUB4" advise="1">
         <values>
           <value>
-            <val>27.01</val>
+            <val>27.76</val>
           </value>
         </values>
       </ddeItem>
       <ddeItem name="JBSS3" advise="1">
         <values>
           <value>
-            <val>22.97</val>
+            <val>22.6</val>
           </value>
         </values>
       </ddeItem>
       <ddeItem name="MRFG3" advise="1">
         <values>
           <value>
-            <val>13.47</val>
+            <val>15.3</val>
           </value>
         </values>
       </ddeItem>
       <ddeItem name="PETR4" advise="1">
         <values>
           <value>
-            <val>22.43</val>
+            <val>23.34</val>
           </value>
         </values>
       </ddeItem>
@@ -293,28 +293,28 @@
       <ddeItem name="SUZB3" advise="1">
         <values>
           <value>
-            <val>36.65</val>
+            <val>40.4</val>
           </value>
         </values>
       </ddeItem>
       <ddeItem name="USIM5" advise="1">
         <values>
           <value>
-            <val>7.41</val>
+            <val>7.39</val>
           </value>
         </values>
       </ddeItem>
       <ddeItem name="VALE3" advise="1">
         <values>
           <value>
-            <val>57.18</val>
+            <val>59.94</val>
           </value>
         </values>
       </ddeItem>
       <ddeItem name="VVAR3" advise="1">
         <values>
           <value>
-            <val>17.600000000000001</val>
+            <val>20.76</val>
           </value>
         </values>
       </ddeItem>
@@ -588,8 +588,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="K12" sqref="K12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L17" sqref="L17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -608,7 +608,7 @@
       </c>
       <c r="B2">
         <f>[1]!PETR4</f>
-        <v>22.43</v>
+        <v>23.34</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
@@ -617,7 +617,7 @@
       </c>
       <c r="B3">
         <f>[1]!VALE3</f>
-        <v>57.18</v>
+        <v>59.94</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
@@ -626,7 +626,7 @@
       </c>
       <c r="B4">
         <f>[1]!BOVA11</f>
-        <v>95.89</v>
+        <v>100.49</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
@@ -635,7 +635,7 @@
       </c>
       <c r="B5">
         <f>[1]!COGN3</f>
-        <v>8.35</v>
+        <v>9.41</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
@@ -644,7 +644,7 @@
       </c>
       <c r="B6">
         <f>[1]!BBDC4</f>
-        <v>21.93</v>
+        <v>23.21</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
@@ -653,7 +653,7 @@
       </c>
       <c r="B7">
         <f>[1]!VVAR3</f>
-        <v>17.600000000000001</v>
+        <v>20.76</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
@@ -662,7 +662,7 @@
       </c>
       <c r="B8">
         <f>[1]!ITUB4</f>
-        <v>27.01</v>
+        <v>27.76</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
@@ -671,7 +671,7 @@
       </c>
       <c r="B9">
         <f>[1]!CIEL3</f>
-        <v>4.83</v>
+        <v>5.34</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
@@ -680,7 +680,7 @@
       </c>
       <c r="B10">
         <f>[1]!IRBR3</f>
-        <v>9.1999999999999993</v>
+        <v>8.5299999999999994</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
@@ -689,7 +689,7 @@
       </c>
       <c r="B11">
         <f>[1]!BBAS3</f>
-        <v>33.89</v>
+        <v>35.76</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
@@ -698,7 +698,7 @@
       </c>
       <c r="B12">
         <f>[1]!ITSA4</f>
-        <v>10.17</v>
+        <v>10.53</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
@@ -707,7 +707,7 @@
       </c>
       <c r="B13">
         <f>[1]!ABEV3</f>
-        <v>14.82</v>
+        <v>14.64</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
@@ -716,7 +716,7 @@
       </c>
       <c r="B14">
         <f>[1]!USIM5</f>
-        <v>7.41</v>
+        <v>7.39</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
@@ -725,7 +725,7 @@
       </c>
       <c r="B15">
         <f>[1]!GGBR4</f>
-        <v>16.11</v>
+        <v>16.079999999999998</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
@@ -734,7 +734,7 @@
       </c>
       <c r="B16">
         <f>[1]!CSNA3</f>
-        <v>11.18</v>
+        <v>11.61</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
@@ -743,7 +743,7 @@
       </c>
       <c r="B17">
         <f>[1]!B3SA3</f>
-        <v>59.14</v>
+        <v>66.13</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
@@ -752,7 +752,7 @@
       </c>
       <c r="B18">
         <f>[1]!JBSS3</f>
-        <v>22.97</v>
+        <v>22.6</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
@@ -761,7 +761,7 @@
       </c>
       <c r="B19">
         <f>[1]!CMIG4</f>
-        <v>11.52</v>
+        <v>11.53</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
@@ -770,7 +770,7 @@
       </c>
       <c r="B20">
         <f>[1]!SUZB3</f>
-        <v>36.65</v>
+        <v>40.4</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
@@ -779,7 +779,7 @@
       </c>
       <c r="B21">
         <f>[1]!MRFG3</f>
-        <v>13.47</v>
+        <v>15.3</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
@@ -788,7 +788,7 @@
       </c>
       <c r="B22">
         <f>[1]!BRML3</f>
-        <v>11.23</v>
+        <v>11.6</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
@@ -797,7 +797,7 @@
       </c>
       <c r="B23">
         <f>[1]!CYRE3</f>
-        <v>27.44</v>
+        <v>27.35</v>
       </c>
     </row>
   </sheetData>

--- a/Cotacao.xlsx
+++ b/Cotacao.xlsx
@@ -2,15 +2,15 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23001"/>
-  <workbookPr/>
+  <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kiyo_\Desktop\projects\options\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A08C8689-2185-4665-9EC0-6C68C02AF723}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{927262B7-581E-4AB0-9774-6E3D92E37689}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5376" yWindow="3108" windowWidth="12720" windowHeight="8820" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>PETR4</t>
   </si>
@@ -105,6 +105,9 @@
   </si>
   <si>
     <t>Atual</t>
+  </si>
+  <si>
+    <t>s</t>
   </si>
 </sst>
 </file>
@@ -173,119 +176,119 @@
       <ddeItem name="B3SA3" advise="1">
         <values>
           <value>
-            <val>66.13</val>
+            <val>65.25</val>
           </value>
         </values>
       </ddeItem>
       <ddeItem name="BBAS3" advise="1">
         <values>
           <value>
-            <val>35.76</val>
+            <val>34.51</val>
           </value>
         </values>
       </ddeItem>
       <ddeItem name="BBDC4" advise="1">
         <values>
           <value>
-            <val>23.21</val>
+            <val>22.79</val>
           </value>
         </values>
       </ddeItem>
       <ddeItem name="BOVA11" advise="1">
         <values>
           <value>
-            <val>100.49</val>
+            <val>98.55</val>
           </value>
         </values>
       </ddeItem>
       <ddeItem name="BRML3" advise="1">
         <values>
           <value>
-            <val>11.6</val>
+            <val>10.4</val>
           </value>
         </values>
       </ddeItem>
       <ddeItem name="CIEL3" advise="1">
         <values>
           <value>
-            <val>5.34</val>
+            <val>5.12</val>
           </value>
         </values>
       </ddeItem>
       <ddeItem name="CMIG4" advise="1">
         <values>
           <value>
-            <val>11.53</val>
+            <val>12.09</val>
           </value>
         </values>
       </ddeItem>
       <ddeItem name="COGN3" advise="1">
         <values>
           <value>
-            <val>9.41</val>
+            <val>8.41</val>
           </value>
         </values>
       </ddeItem>
       <ddeItem name="CSNA3" advise="1">
         <values>
           <value>
-            <val>11.61</val>
+            <val>11.68</val>
           </value>
         </values>
       </ddeItem>
       <ddeItem name="CYRE3" advise="1">
         <values>
           <value>
-            <val>27.35</val>
+            <val>25.7</val>
           </value>
         </values>
       </ddeItem>
       <ddeItem name="GGBR4" advise="1">
         <values>
           <value>
-            <val>16.079999999999998</val>
+            <val>16.510000000000002</val>
           </value>
         </values>
       </ddeItem>
       <ddeItem name="IRBR3" advise="1">
         <values>
           <value>
-            <val>8.5299999999999994</val>
+            <val>8.3000000000000007</val>
           </value>
         </values>
       </ddeItem>
       <ddeItem name="ITSA4" advise="1">
         <values>
           <value>
-            <val>10.53</val>
+            <val>10.56</val>
           </value>
         </values>
       </ddeItem>
       <ddeItem name="ITUB4" advise="1">
         <values>
           <value>
-            <val>27.76</val>
+            <val>26.82</val>
           </value>
         </values>
       </ddeItem>
       <ddeItem name="JBSS3" advise="1">
         <values>
           <value>
-            <val>22.6</val>
+            <val>22.01</val>
           </value>
         </values>
       </ddeItem>
       <ddeItem name="MRFG3" advise="1">
         <values>
           <value>
-            <val>15.3</val>
+            <val>14.75</val>
           </value>
         </values>
       </ddeItem>
       <ddeItem name="PETR4" advise="1">
         <values>
           <value>
-            <val>23.34</val>
+            <val>22.98</val>
           </value>
         </values>
       </ddeItem>
@@ -293,28 +296,28 @@
       <ddeItem name="SUZB3" advise="1">
         <values>
           <value>
-            <val>40.4</val>
+            <val>42.39</val>
           </value>
         </values>
       </ddeItem>
       <ddeItem name="USIM5" advise="1">
         <values>
           <value>
-            <val>7.39</val>
+            <val>7.46</val>
           </value>
         </values>
       </ddeItem>
       <ddeItem name="VALE3" advise="1">
         <values>
           <value>
-            <val>59.94</val>
+            <val>58.36</val>
           </value>
         </values>
       </ddeItem>
       <ddeItem name="VVAR3" advise="1">
         <values>
           <value>
-            <val>20.76</val>
+            <val>19.399999999999999</val>
           </value>
         </values>
       </ddeItem>
@@ -586,15 +589,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B23"/>
+  <sheetPr codeName="Sheet1"/>
+  <dimension ref="A1:J23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L17" sqref="L17"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1">
         <v>0</v>
       </c>
@@ -602,106 +606,109 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
       <c r="B2">
         <f>[1]!PETR4</f>
-        <v>23.34</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+        <v>22.98</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>1</v>
       </c>
       <c r="B3">
         <f>[1]!VALE3</f>
-        <v>59.94</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+        <v>58.36</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>2</v>
       </c>
       <c r="B4">
         <f>[1]!BOVA11</f>
-        <v>100.49</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+        <v>98.55</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>3</v>
       </c>
       <c r="B5">
         <f>[1]!COGN3</f>
-        <v>9.41</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+        <v>8.41</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>4</v>
       </c>
       <c r="B6">
         <f>[1]!BBDC4</f>
-        <v>23.21</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+        <v>22.79</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>5</v>
       </c>
       <c r="B7">
         <f>[1]!VVAR3</f>
-        <v>20.76</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+        <v>19.399999999999999</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>6</v>
       </c>
       <c r="B8">
         <f>[1]!ITUB4</f>
-        <v>27.76</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+        <v>26.82</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>7</v>
       </c>
       <c r="B9">
         <f>[1]!CIEL3</f>
-        <v>5.34</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+        <v>5.12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>8</v>
       </c>
       <c r="B10">
         <f>[1]!IRBR3</f>
-        <v>8.5299999999999994</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+        <v>8.3000000000000007</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>9</v>
       </c>
       <c r="B11">
         <f>[1]!BBAS3</f>
-        <v>35.76</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+        <v>34.51</v>
+      </c>
+      <c r="J11" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>10</v>
       </c>
       <c r="B12">
         <f>[1]!ITSA4</f>
-        <v>10.53</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+        <v>10.56</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>11</v>
       </c>
@@ -710,31 +717,31 @@
         <v>14.64</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>12</v>
       </c>
       <c r="B14">
         <f>[1]!USIM5</f>
-        <v>7.39</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+        <v>7.46</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>13</v>
       </c>
       <c r="B15">
         <f>[1]!GGBR4</f>
-        <v>16.079999999999998</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+        <v>16.510000000000002</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>14</v>
       </c>
       <c r="B16">
         <f>[1]!CSNA3</f>
-        <v>11.61</v>
+        <v>11.68</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
@@ -743,7 +750,7 @@
       </c>
       <c r="B17">
         <f>[1]!B3SA3</f>
-        <v>66.13</v>
+        <v>65.25</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
@@ -752,7 +759,7 @@
       </c>
       <c r="B18">
         <f>[1]!JBSS3</f>
-        <v>22.6</v>
+        <v>22.01</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
@@ -761,7 +768,7 @@
       </c>
       <c r="B19">
         <f>[1]!CMIG4</f>
-        <v>11.53</v>
+        <v>12.09</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
@@ -770,7 +777,7 @@
       </c>
       <c r="B20">
         <f>[1]!SUZB3</f>
-        <v>40.4</v>
+        <v>42.39</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
@@ -779,7 +786,7 @@
       </c>
       <c r="B21">
         <f>[1]!MRFG3</f>
-        <v>15.3</v>
+        <v>14.75</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
@@ -788,7 +795,7 @@
       </c>
       <c r="B22">
         <f>[1]!BRML3</f>
-        <v>11.6</v>
+        <v>10.4</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
@@ -797,7 +804,7 @@
       </c>
       <c r="B23">
         <f>[1]!CYRE3</f>
-        <v>27.35</v>
+        <v>25.7</v>
       </c>
     </row>
   </sheetData>
